--- a/Doc_Templates/employee_details.xlsx
+++ b/Doc_Templates/employee_details.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Data Science\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git-hub_projects\Generate_Document\Doc_Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,15 +32,9 @@
     <t>EmployeeID</t>
   </si>
   <si>
-    <t>length_of_service</t>
-  </si>
-  <si>
     <t>city_name</t>
   </si>
   <si>
-    <t>department_name</t>
-  </si>
-  <si>
     <t>job_title</t>
   </si>
   <si>
@@ -147,6 +141,12 @@
   </si>
   <si>
     <t>trainee Manager</t>
+  </si>
+  <si>
+    <t>svc_len</t>
+  </si>
+  <si>
+    <t>Depart_name</t>
   </si>
 </sst>
 </file>
@@ -467,7 +467,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,37 +489,37 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
-      </c>
-      <c r="L1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -527,7 +527,7 @@
         <v>1318</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2">
         <v>57</v>
@@ -536,31 +536,31 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K2">
         <v>2006</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -568,7 +568,7 @@
         <v>1365</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C3">
         <v>53</v>
@@ -577,31 +577,31 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K3">
         <v>2007</v>
       </c>
       <c r="L3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -610,7 +610,7 @@
         <v>1366</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C4">
         <v>37</v>
@@ -619,31 +619,31 @@
         <v>4</v>
       </c>
       <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K4">
         <v>2008</v>
       </c>
       <c r="L4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -652,7 +652,7 @@
         <v>1367</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C5">
         <v>43</v>
@@ -661,31 +661,31 @@
         <v>6</v>
       </c>
       <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" t="s">
-        <v>13</v>
-      </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K5">
         <v>2009</v>
       </c>
       <c r="L5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -694,7 +694,7 @@
         <v>1368</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6">
         <v>46</v>
@@ -703,31 +703,31 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K6">
         <v>2010</v>
       </c>
       <c r="L6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -736,7 +736,7 @@
         <v>1369</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>30</v>
@@ -745,31 +745,31 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K7">
         <v>2011</v>
       </c>
       <c r="L7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
